--- a/Inspiration/Layout.xlsx
+++ b/Inspiration/Layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b-fri\Dropbox\Private\Programming\WebDev\My Portfolio Website\Inspiration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b-fri\Dropbox\Private\Programming\WebDev\MyWebsite\inspiration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8B1348-0E42-410A-A0EC-D73829CBE2A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C978C5F-9912-4FBE-8982-63441AD8A9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About Me" sheetId="1" r:id="rId1"/>
@@ -158,18 +158,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor rgb="FF9933FF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -323,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,22 +338,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,6 +355,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,29 +650,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
         <v>22</v>
@@ -687,7 +690,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -700,7 +703,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -713,7 +716,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -726,7 +729,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -739,7 +742,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
@@ -752,7 +755,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
@@ -765,7 +768,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -788,7 +791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -801,7 +804,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -814,7 +817,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -828,9 +831,6 @@
       <c r="H14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{AE6A13C9-8B4B-4C37-BBFC-7653E1413733}"/>
     <hyperlink ref="C13:C14" r:id="rId2" display="https://link.com" xr:uid="{1574E868-7AF7-455D-A34D-9C56A6CF9DD4}"/>
@@ -850,25 +850,25 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="14"/>
-      <c r="C4" s="17" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6"/>
@@ -877,11 +877,11 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5"/>
@@ -890,11 +890,11 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
@@ -903,11 +903,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="7"/>
@@ -916,11 +916,11 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="7"/>
@@ -929,11 +929,11 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="7"/>
@@ -942,11 +942,11 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="7"/>
@@ -955,11 +955,11 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -978,11 +978,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="7"/>
@@ -991,11 +991,11 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7"/>
@@ -1004,11 +1004,11 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="7"/>
@@ -1038,7 +1038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1052,7 +1052,7 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inspiration/Layout.xlsx
+++ b/Inspiration/Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b-fri\Dropbox\Private\Programming\WebDev\MyWebsite\inspiration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C978C5F-9912-4FBE-8982-63441AD8A9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF4BE55-5B75-4FE1-8117-F8D07BD97C00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,13 +356,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,31 +653,35 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
@@ -832,10 +836,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{AE6A13C9-8B4B-4C37-BBFC-7653E1413733}"/>
-    <hyperlink ref="C13:C14" r:id="rId2" display="https://link.com" xr:uid="{1574E868-7AF7-455D-A34D-9C56A6CF9DD4}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{9D4EEC83-EC89-4AAD-ABA5-9F2AB9AE46EE}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{96A6611C-3A88-4509-98EA-75007B724888}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{96A6611C-3A88-4509-98EA-75007B724888}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{9D4EEC83-EC89-4AAD-ABA5-9F2AB9AE46EE}"/>
+    <hyperlink ref="C13:C14" r:id="rId3" display="https://link.com" xr:uid="{1574E868-7AF7-455D-A34D-9C56A6CF9DD4}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{AE6A13C9-8B4B-4C37-BBFC-7653E1413733}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
@@ -860,10 +864,10 @@
   <sheetData>
     <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
